--- a/Desktop/REPORT  ICPMS/POW 040924/IQC.xlsx
+++ b/Desktop/REPORT  ICPMS/POW 040924/IQC.xlsx
@@ -888,6 +888,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,117 +920,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1048,33 +939,127 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1094,20 +1079,35 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1499,10 +1499,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="21" t="s">
@@ -1529,16 +1529,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="108">
+      <c r="B7" s="30">
         <v>0.04</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="108">
+      <c r="B8" s="30">
         <v>0.501</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="30">
         <v>0.502</v>
       </c>
     </row>
@@ -1567,16 +1567,16 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="30">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="30">
         <v>0.501</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="30">
         <v>0.502</v>
       </c>
     </row>
@@ -1605,16 +1605,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="30">
         <v>0.16800000000000001</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="30">
         <v>0.501</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="108">
+      <c r="B19" s="30">
         <v>0.502</v>
       </c>
     </row>
@@ -1643,16 +1643,16 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="108">
+      <c r="B22" s="30">
         <v>1.175</v>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       <c r="A23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="108">
+      <c r="B23" s="30">
         <v>0.501</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="30">
         <v>0.502</v>
       </c>
     </row>
@@ -1676,21 +1676,21 @@
       <c r="A25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="108">
+      <c r="B25" s="30">
         <v>229.005</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="33"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
       <c r="A27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="21" t="s">
@@ -1786,10 +1786,10 @@
       <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="19" t="s">
@@ -1816,10 +1816,10 @@
       <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1">
       <c r="A12" s="19" t="s">
@@ -1846,10 +1846,10 @@
       <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="19" t="s">
@@ -1876,10 +1876,10 @@
       <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" s="19" t="s">
@@ -1906,10 +1906,10 @@
       <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="33"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
       <c r="A27" s="19" t="s">
@@ -2018,6 +2018,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2025,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:I34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2042,95 +2043,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="89">
         <f>FormTitan!B3</f>
         <v>110924</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="78" t="str">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="73" t="str">
         <f>FormTitan!B4</f>
         <v>IQC POW 040924</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="78" t="str">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="73" t="str">
         <f>FormTitan!B5</f>
         <v>RB POW 040924</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="42">
         <f>FormTitan!B7</f>
         <v>0.04</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2149,118 +2150,118 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="71">
         <f>FormTitan!B8</f>
         <v>0.501</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="71">
         <f>FormTitan!B10</f>
         <v>53.956000000000003</v>
       </c>
-      <c r="D8" s="40">
-        <v>4539.1080000000002</v>
-      </c>
-      <c r="E8" s="57">
+      <c r="D8" s="71">
+        <v>4539.107</v>
+      </c>
+      <c r="E8" s="64">
         <f>D8-C8</f>
-        <v>4485.152</v>
-      </c>
-      <c r="F8" s="59">
+        <v>4485.1509999999998</v>
+      </c>
+      <c r="F8" s="60">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
-        <v>0.8988244608</v>
+        <v>0.89882426039999996</v>
       </c>
       <c r="G8" s="79" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="80"/>
-      <c r="I8" s="50">
+      <c r="I8" s="55">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
-        <v>7.5864627084800094E-3</v>
+        <v>7.5866856631809096E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="60"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="81" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="82"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="71">
         <f>FormTitan!B9</f>
         <v>0.502</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="71">
         <f>C8</f>
         <v>53.956000000000003</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="71">
         <v>4573.2640000000001</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="64">
         <f>D10-C10</f>
         <v>4519.308</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="60">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>0.90747704639999993</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="53" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="42">
         <f>FormTitan!B12</f>
         <v>1.6E-2</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2279,118 +2280,118 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="71">
         <f>FormTitan!B13</f>
         <v>0.501</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="71">
         <f>FormTitan!B15</f>
         <v>19.515999999999998</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="71">
         <v>290.18</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="64">
         <f>D14-C14</f>
         <v>270.66399999999999</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="60">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>0.90401776</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="50">
+      <c r="H14" s="63"/>
+      <c r="I14" s="55">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>2.4715739078396182E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="56"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="53" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="71">
         <f>FormTitan!B14</f>
         <v>0.502</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="71">
         <f>C14</f>
         <v>19.515999999999998</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="71">
         <v>283.572</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="64">
         <f>D16-C16</f>
         <v>264.05599999999998</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="60">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>0.88370741333333314</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="51"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="53" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="52"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="42">
         <f>FormTitan!B17</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2409,118 +2410,118 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="71">
         <f>FormTitan!B18</f>
         <v>0.501</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="71">
         <f>FormTitan!B20</f>
         <v>15.757999999999999</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="71">
         <v>463.14400000000001</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="64">
         <f>D20-C20</f>
         <v>447.38600000000002</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="60">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>0.8965615440000001</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="50">
+      <c r="H20" s="63"/>
+      <c r="I20" s="55">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>1.5209134038798687E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="53" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="51"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="71">
         <f>FormTitan!B19</f>
         <v>0.502</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="71">
         <f>C20</f>
         <v>15.757999999999999</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="71">
         <v>456.39100000000002</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="64">
         <f>D22-C22</f>
         <v>440.63300000000004</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="60">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>0.88479106400000007</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="51"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="53" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="52"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83">
-        <f>FormTitan!B17</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="H24" s="84"/>
+      <c r="G24" s="42">
+        <f>FormTitan!B22</f>
+        <v>1.175</v>
+      </c>
+      <c r="H24" s="43"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2539,101 +2540,101 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="71">
         <f>FormTitan!B18</f>
         <v>0.501</v>
       </c>
-      <c r="C26" s="40">
-        <f>FormTitan!B20</f>
-        <v>15.757999999999999</v>
-      </c>
-      <c r="D26" s="40">
+      <c r="C26" s="71">
+        <f>FormTitan!B25</f>
+        <v>229.005</v>
+      </c>
+      <c r="D26" s="71">
         <v>9975.1929999999993</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="64">
         <f>D26-C26</f>
-        <v>9959.4349999999995</v>
-      </c>
-      <c r="F26" s="59">
+        <v>9746.1880000000001</v>
+      </c>
+      <c r="F26" s="60">
         <f>((D26-C26)/1000)/(5/B26)</f>
-        <v>0.99793538699999984</v>
-      </c>
-      <c r="G26" s="61" t="s">
+        <v>0.97656803759999988</v>
+      </c>
+      <c r="G26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="50">
+      <c r="H26" s="63"/>
+      <c r="I26" s="55">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
-        <v>5.4942786808495356E-3</v>
+        <v>5.6148312211779152E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="53" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="51"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="71">
         <f>FormTitan!B19</f>
         <v>0.502</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="71">
         <f>C26</f>
-        <v>15.757999999999999</v>
-      </c>
-      <c r="D28" s="40">
+        <v>229.005</v>
+      </c>
+      <c r="D28" s="71">
         <v>9920.6229999999996</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="64">
         <f>D28-C28</f>
-        <v>9904.8649999999998</v>
-      </c>
-      <c r="F28" s="59">
+        <v>9691.6180000000004</v>
+      </c>
+      <c r="F28" s="60">
         <f>((D28-C28)/1000)/(5/B28)</f>
-        <v>0.99444844599999993</v>
-      </c>
-      <c r="G28" s="61" t="s">
+        <v>0.97303844719999999</v>
+      </c>
+      <c r="G28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="51"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="53" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="52"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="13"/>
@@ -2647,58 +2648,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="85" t="str">
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="44" t="str">
         <f>FormTitan!B27</f>
         <v>PERMIT            MAISARAH</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="110">
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="48">
         <f>FormTitan!B28</f>
         <v>45546</v>
       </c>
-      <c r="I31" s="111"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
@@ -13287,6 +13288,83 @@
     <protectedRange sqref="D3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="93">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G18:H18"/>
@@ -13303,83 +13381,6 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13413,95 +13414,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="78">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="73">
         <f>FormGH!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="78">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="73">
         <f>FormGH!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="78">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="73">
         <f>FormGH!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="42">
         <f>FormGH!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13520,114 +13521,114 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="71">
         <f>FormGH!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="71">
         <f>FormGH!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="100">
+      <c r="D8" s="71"/>
+      <c r="E8" s="111">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="59" t="e">
+      <c r="F8" s="60" t="e">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="50" t="e">
+      <c r="H8" s="110"/>
+      <c r="I8" s="55" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="53" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="95"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="106"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="71">
         <f>FormGH!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="71">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="100">
+      <c r="D10" s="71"/>
+      <c r="E10" s="111">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="e">
+      <c r="F10" s="60" t="e">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="106"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="53" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="96"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="107"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="42">
         <f>FormGH!B12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -13646,114 +13647,114 @@
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="71">
         <f>FormGH!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="71">
         <f>FormGH!B15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="100">
+      <c r="D14" s="71"/>
+      <c r="E14" s="111">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="59" t="e">
+      <c r="F14" s="60" t="e">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="50" t="e">
+      <c r="H14" s="110"/>
+      <c r="I14" s="55" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="96"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="53" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="71">
         <f>FormGH!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="71">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="100">
+      <c r="D16" s="71"/>
+      <c r="E16" s="111">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="59" t="e">
+      <c r="F16" s="60" t="e">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="95"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="106"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="53" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="96"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="107"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="102">
+      <c r="G18" s="95">
         <f>FormGH!B17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="103"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -13772,114 +13773,114 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="71">
         <f>FormGH!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="71">
         <f>FormGH!B20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="57">
+      <c r="D20" s="71"/>
+      <c r="E20" s="64">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59" t="e">
+      <c r="F20" s="60" t="e">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="50" t="e">
+      <c r="H20" s="110"/>
+      <c r="I20" s="55" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="53" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="95"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="71">
         <f>FormGH!B19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="71">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="57">
+      <c r="D22" s="71"/>
+      <c r="E22" s="64">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="59" t="e">
+      <c r="F22" s="60" t="e">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="96"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="53" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="96"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="107"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="42">
         <f>FormGH!B22</f>
         <v>0</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -13898,151 +13899,151 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="71">
         <f>FormGH!B23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="71">
         <f>FormGH!B25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="57">
+      <c r="D26" s="71"/>
+      <c r="E26" s="64">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="59" t="e">
+      <c r="F26" s="60" t="e">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="50" t="e">
+      <c r="H26" s="110"/>
+      <c r="I26" s="55" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="53" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="97"/>
-      <c r="I27" s="95"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="106"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="71">
         <f>FormGH!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="71">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="57">
+      <c r="D28" s="71"/>
+      <c r="E28" s="64">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="59" t="e">
+      <c r="F28" s="60" t="e">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="95"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="106"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="53" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="97"/>
-      <c r="I29" s="96"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="107"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="104">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="97">
         <f>FormGH!B27</f>
         <v>0</v>
       </c>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="89">
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="101">
         <f>FormGH!B28</f>
         <v>0</v>
       </c>
-      <c r="I30" s="90"/>
+      <c r="I30" s="102"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="92"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
@@ -24628,6 +24629,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G18:H18"/>
@@ -24644,83 +24722,6 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
